--- a/PDDE/entrega 1/relatorio2.xlsx
+++ b/PDDE/entrega 1/relatorio2.xlsx
@@ -9,32 +9,27 @@
     <sheet name="tab1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="tab2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tab3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="tab4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="tab5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="tab6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="tab7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="tab31" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="tab4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="tab5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="tab6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="tab7" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">NO_UF</t>
   </si>
   <si>
-    <t xml:space="preserve">Federal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estadual</t>
   </si>
   <si>
     <t xml:space="preserve">Municipal</t>
   </si>
   <si>
-    <t xml:space="preserve">Privada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -56,19 +51,19 @@
     <t xml:space="preserve">Paralisada</t>
   </si>
   <si>
-    <t xml:space="preserve">Extinta</t>
+    <t xml:space="preserve">Extinta (ano do Censo)</t>
   </si>
   <si>
     <t xml:space="preserve">Não diferenciada</t>
   </si>
   <si>
-    <t xml:space="preserve">Urbana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural de difícil acesso</t>
+    <t xml:space="preserve">Assentamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terra Indígena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remanescente de quilombos</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
@@ -416,111 +411,75 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>705</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>705</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>775</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>1024</v>
       </c>
       <c r="C3" t="n">
-        <v>1024</v>
+        <v>2729</v>
       </c>
       <c r="D3" t="n">
-        <v>2729</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1686</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5467</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>825</v>
+        <v>1829</v>
       </c>
       <c r="D4" t="n">
-        <v>1829</v>
-      </c>
-      <c r="E4" t="n">
-        <v>647</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3320</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>365</v>
+        <v>1008</v>
       </c>
       <c r="D5" t="n">
-        <v>1008</v>
-      </c>
-      <c r="E5" t="n">
-        <v>536</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1920</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>2919</v>
       </c>
       <c r="C6" t="n">
-        <v>2919</v>
+        <v>5566</v>
       </c>
       <c r="D6" t="n">
-        <v>5566</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3644</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12198</v>
+        <v>8485</v>
       </c>
     </row>
   </sheetData>
@@ -542,101 +501,101 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1395</v>
+        <v>697</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1491</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4973</v>
+        <v>3485</v>
       </c>
       <c r="C3" t="n">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>5467</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2816</v>
+        <v>2252</v>
       </c>
       <c r="C4" t="n">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>3320</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1806</v>
+        <v>1343</v>
       </c>
       <c r="C5" t="n">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1920</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10990</v>
+        <v>7777</v>
       </c>
       <c r="C6" t="n">
-        <v>1059</v>
+        <v>630</v>
       </c>
       <c r="D6" t="n">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>12198</v>
+        <v>8485</v>
       </c>
     </row>
   </sheetData>
@@ -658,30 +617,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1302</v>
+        <v>695</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -693,21 +652,21 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>1491</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4516</v>
+        <v>3355</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -716,18 +675,18 @@
         <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>822</v>
+        <v>270</v>
       </c>
       <c r="G3" t="n">
-        <v>5467</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2345</v>
+        <v>1882</v>
       </c>
       <c r="C4" t="n">
         <v>157</v>
@@ -739,56 +698,56 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>605</v>
+        <v>402</v>
       </c>
       <c r="G4" t="n">
-        <v>3320</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1673</v>
+        <v>1213</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>1920</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9836</v>
+        <v>7145</v>
       </c>
       <c r="C6" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" t="n">
         <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>1733</v>
+        <v>714</v>
       </c>
       <c r="G6" t="n">
-        <v>12198</v>
+        <v>8485</v>
       </c>
     </row>
   </sheetData>
@@ -810,83 +769,84 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>452</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>452</v>
+        <v>73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>898</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>2359</v>
+        <v>203</v>
       </c>
       <c r="D3" t="n">
-        <v>3257</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>564</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>1397</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>1961</v>
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="C5" t="n">
-        <v>938</v>
+        <v>273</v>
       </c>
       <c r="D5" t="n">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2257</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4694</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6951</v>
+        <v>89</v>
+      </c>
+      <c r="E5" t="n">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -908,83 +868,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>204</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>898</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>2359</v>
       </c>
       <c r="D3" t="n">
-        <v>195</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>142</v>
+        <v>564</v>
       </c>
       <c r="C4" t="n">
-        <v>145</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="n">
-        <v>287</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>938</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>406</v>
+        <v>2257</v>
       </c>
       <c r="C6" t="n">
-        <v>333</v>
+        <v>4694</v>
       </c>
       <c r="D6" t="n">
-        <v>739</v>
+        <v>6951</v>
       </c>
     </row>
   </sheetData>
@@ -1006,83 +966,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>656</v>
+        <v>204</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>656</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>952</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>2500</v>
+        <v>141</v>
       </c>
       <c r="D3" t="n">
-        <v>3452</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>706</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n">
-        <v>1542</v>
+        <v>145</v>
       </c>
       <c r="D4" t="n">
-        <v>2248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>985</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>1334</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2663</v>
+        <v>406</v>
       </c>
       <c r="C6" t="n">
-        <v>5027</v>
+        <v>333</v>
       </c>
       <c r="D6" t="n">
-        <v>7690</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -1112,111 +1072,173 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>656</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>775</v>
-      </c>
-      <c r="F2" t="n">
-        <v>835</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>952</v>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>2500</v>
       </c>
       <c r="D3" t="n">
-        <v>229</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1686</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2015</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>706</v>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>1542</v>
       </c>
       <c r="D4" t="n">
-        <v>287</v>
-      </c>
-      <c r="E4" t="n">
-        <v>647</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1072</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>985</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>536</v>
-      </c>
-      <c r="F5" t="n">
-        <v>586</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2663</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>119</v>
+      </c>
+      <c r="C4" t="n">
+        <v>287</v>
+      </c>
+      <c r="D4" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>539</v>
       </c>
       <c r="D6" t="n">
-        <v>539</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3644</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4508</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
